--- a/info summary.xlsx
+++ b/info summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17700" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="17700" windowHeight="9264" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="项目个数" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="火车票价" sheetId="4" r:id="rId4"/>
     <sheet name="ID表" sheetId="5" r:id="rId5"/>
     <sheet name="对象" sheetId="6" r:id="rId6"/>
+    <sheet name="结果" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
   <si>
     <t>黑龙江省大庆市</t>
   </si>
@@ -473,6 +475,27 @@
     <t>员工ID</t>
   </si>
   <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
     <t>地点ID</t>
   </si>
   <si>
@@ -525,6 +548,15 @@
   </si>
   <si>
     <t>（DFS要存的东西）</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>每个人</t>
+  </si>
+  <si>
+    <t>1，始发地,始发日期-&gt;火车-&gt;负责的项目-&gt;完工时间-&gt;下一班火车-&gt;下一个项目</t>
   </si>
 </sst>
 </file>
@@ -533,9 +565,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -558,6 +590,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -574,75 +643,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,17 +674,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,7 +713,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,7 +773,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,13 +851,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,43 +899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,43 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,43 +935,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,21 +1019,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1026,26 +1043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1063,9 +1060,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,7 +1119,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,139 +1128,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1786,8 +1818,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3438,8 +3470,8 @@
   <sheetPr/>
   <dimension ref="A2:AH13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3604,31 +3636,31 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="43.2" spans="1:31">
@@ -3749,77 +3781,127 @@
   <sheetData>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="129.6" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C7:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="67.1111111111111" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="3:4">
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/info summary.xlsx
+++ b/info summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17700" windowHeight="9264" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="17700" windowHeight="9264" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="项目个数" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
     <sheet name="结果" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet2!$A$20:$A$49</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="188">
   <si>
     <t>黑龙江省大庆市</t>
   </si>
@@ -433,6 +436,18 @@
     <t>福建省福州市B</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>贵州省都匀市A</t>
   </si>
   <si>
@@ -472,6 +487,102 @@
     <t>内蒙古自治区赤峰市C</t>
   </si>
   <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>员工ID</t>
   </si>
   <si>
@@ -557,6 +668,123 @@
   </si>
   <si>
     <t>1，始发地,始发日期-&gt;火车-&gt;负责的项目-&gt;完工时间-&gt;下一班火车-&gt;下一个项目</t>
+  </si>
+  <si>
+    <t>火车站与地点对照</t>
+  </si>
+  <si>
+    <t>大庆</t>
+  </si>
+  <si>
+    <t>白城</t>
+  </si>
+  <si>
+    <t>辽宁朝阳</t>
+  </si>
+  <si>
+    <t>海阳北</t>
+  </si>
+  <si>
+    <t>济宁</t>
+  </si>
+  <si>
+    <t>张家口</t>
+  </si>
+  <si>
+    <t>保定</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>兰州</t>
+  </si>
+  <si>
+    <t>平安驿</t>
+  </si>
+  <si>
+    <t>西宁</t>
+  </si>
+  <si>
+    <t>都匀</t>
+  </si>
+  <si>
+    <t>毕节</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>江永</t>
+  </si>
+  <si>
+    <t>梧州</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>棋子湾</t>
+  </si>
+  <si>
+    <t>共青城</t>
+  </si>
+  <si>
+    <t>乐平市</t>
+  </si>
+  <si>
+    <t>吉安</t>
+  </si>
+  <si>
+    <t>盐城</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>淮南</t>
+  </si>
+  <si>
+    <t>滁州</t>
+  </si>
+  <si>
+    <t>银川</t>
+  </si>
+  <si>
+    <t>赤峰</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>bz:</t>
+  </si>
+  <si>
+    <t>烟台</t>
+  </si>
+  <si>
+    <t>永州</t>
+  </si>
+  <si>
+    <t>景德镇</t>
+  </si>
+  <si>
+    <t>海阳</t>
+  </si>
+  <si>
+    <t>乐平</t>
+  </si>
+  <si>
+    <t>始发\到达</t>
+  </si>
+  <si>
+    <t>海阳北/烟台</t>
+  </si>
+  <si>
+    <t>江永/永州</t>
+  </si>
+  <si>
+    <t>乐平市/景德镇</t>
   </si>
 </sst>
 </file>
@@ -564,10 +792,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -590,9 +818,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,20 +842,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,6 +855,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -635,7 +871,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,7 +879,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,32 +924,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,7 +940,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,9 +948,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,25 +962,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -767,7 +1013,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +1079,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,169 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,6 +1253,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1039,6 +1288,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,39 +1337,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1119,7 +1353,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,169 +1362,179 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1298,10 +1542,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,12 +1557,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,25 +1895,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="11:11">
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="11:11">
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="11:11">
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="7:11">
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1678,13 +1921,13 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1692,54 +1935,54 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I8">
         <v>32</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="7:11">
-      <c r="G9" s="11"/>
-      <c r="K9" s="20" t="s">
+      <c r="G9" s="17"/>
+      <c r="K9" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="11:11">
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="11:11">
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="11:11">
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="11:11">
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="11:11">
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="11:11">
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1750,7 +1993,7 @@
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1758,52 +2001,52 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="11:11">
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="11:11">
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="11:11">
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="11:11">
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="11:11">
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="11:11">
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="11:11">
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="11:11">
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="11:11">
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1818,7 +2061,7 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1829,234 +2072,234 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:9">
-      <c r="A2" s="17">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="14">
         <v>350</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="14">
         <v>1.36</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:9">
-      <c r="A3" s="17">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="14">
         <v>300</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="14">
         <v>1.71</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:9">
-      <c r="A4" s="17">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="14">
         <v>250</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="14">
         <v>1.5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:9">
-      <c r="A5" s="17">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <v>300</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="14">
         <v>1.33</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>300</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="14">
         <v>1.5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>250</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="14">
         <v>1.29</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:9">
-      <c r="A8" s="17">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <v>250</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="14">
         <v>1.71</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2066,7 +2309,7 @@
       </c>
     </row>
     <row r="14" ht="92" customHeight="1" spans="11:11">
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2084,10 +2327,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:AI18"/>
+  <dimension ref="C8:AI20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D20" sqref="D20:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2097,144 +2340,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" spans="4:13">
-      <c r="D9" s="12">
+    <row r="9" s="18" customFormat="1" spans="4:13">
+      <c r="D9" s="18">
         <v>5.23</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="18">
         <v>5.24</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="18">
         <v>5.25</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="18">
         <v>5.26</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="18">
         <v>5.27</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="18">
         <v>5.28</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="18">
         <v>5.29</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="18">
         <v>5.31</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="3:20">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" ht="15.15" spans="3:27">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
     </row>
     <row r="12" ht="15.15" spans="3:25">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
     </row>
     <row r="13" ht="15.15" spans="3:26">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="11"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
@@ -2242,31 +2485,31 @@
       </c>
     </row>
     <row r="15" spans="4:34">
-      <c r="D15" s="12">
+      <c r="D15" s="18">
         <v>5.23</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="18">
         <v>5.24</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="18">
         <v>5.25</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="18">
         <v>5.26</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="18">
         <v>5.27</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="18">
         <v>5.28</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="18">
         <v>5.29</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="18">
         <v>5.31</v>
       </c>
       <c r="M15">
@@ -2337,77 +2580,222 @@
       </c>
     </row>
     <row r="16" ht="15.15" spans="3:26">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17" ht="15.15" spans="3:27">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
     </row>
     <row r="18" ht="15.15" spans="3:35">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+    </row>
+    <row r="19" spans="6:35">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>13</v>
+      </c>
+      <c r="S19">
+        <v>14</v>
+      </c>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="U19">
+        <v>16</v>
+      </c>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <v>18</v>
+      </c>
+      <c r="X19">
+        <v>19</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>21</v>
+      </c>
+      <c r="AA19">
+        <v>22</v>
+      </c>
+      <c r="AB19">
+        <v>23</v>
+      </c>
+      <c r="AC19">
+        <v>24</v>
+      </c>
+      <c r="AD19">
+        <v>25</v>
+      </c>
+      <c r="AE19">
+        <v>26</v>
+      </c>
+      <c r="AF19">
+        <v>27</v>
+      </c>
+      <c r="AG19">
+        <v>28</v>
+      </c>
+      <c r="AH19">
+        <v>29</v>
+      </c>
+      <c r="AI19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>13</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="R20">
+        <v>15</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2420,8 +2808,8 @@
   <sheetPr/>
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2430,1024 +2818,1024 @@
     <col min="3" max="3" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:31">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="43.2" spans="1:31">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
@@ -3470,8 +3858,8 @@
   <sheetPr/>
   <dimension ref="A2:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3484,275 +3872,385 @@
     <col min="30" max="30" width="20.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1" ht="43.2" spans="2:34">
-      <c r="B4" s="1" t="s">
+    <row r="3" s="8" customFormat="1" spans="3:6">
+      <c r="C3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="43.2" spans="2:34">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" s="5" t="s">
+      <c r="V4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="W4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="X4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="Y4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="Z4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AA4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AB4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AC4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AD4" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="AE4" s="12" t="s">
         <v>84</v>
       </c>
+      <c r="AF4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="3:34">
+      <c r="C5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" ht="15.15" spans="2:8">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="43.2" spans="1:31">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="43.2" spans="1:31">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="X13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Y13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="Z13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="7" t="s">
+      <c r="AA13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AB13" s="7" t="s">
+      <c r="AB13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC13" s="7" t="s">
+      <c r="AC13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3781,73 +4279,73 @@
   <sheetData>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="129.6" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>106</v>
+      <c r="B13" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>143</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3867,23 +4365,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="67.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.1111111111111" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="3:4">
       <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1"/>
+        <v>147</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3893,14 +4391,858 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A4:AE49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.537037037037" customWidth="1"/>
+    <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
+    <col min="3" max="17" width="8.88888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>19</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <v>22</v>
+      </c>
+      <c r="X5">
+        <v>23</v>
+      </c>
+      <c r="Y5">
+        <v>24</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>26</v>
+      </c>
+      <c r="AB5">
+        <v>27</v>
+      </c>
+      <c r="AC5">
+        <v>28</v>
+      </c>
+      <c r="AD5">
+        <v>29</v>
+      </c>
+      <c r="AE5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="2:31">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R7" t="s">
+        <v>166</v>
+      </c>
+      <c r="S7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" t="s">
+        <v>169</v>
+      </c>
+      <c r="V7" t="s">
+        <v>170</v>
+      </c>
+      <c r="W7" t="s">
+        <v>171</v>
+      </c>
+      <c r="X7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="I23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="J25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="H26" s="6"/>
+      <c r="K26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="I27" s="6"/>
+      <c r="X27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="6"/>
+      <c r="N29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="L30" s="6"/>
+      <c r="O30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="M31" s="6"/>
+      <c r="T31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="AB31" s="3"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="6"/>
+      <c r="T33" s="3"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="6"/>
+      <c r="T34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="Q35" s="6"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="R36" s="6"/>
+      <c r="T36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="T38" s="6"/>
+      <c r="W38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W42" s="3"/>
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="Y43" s="6"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="3"/>
+      <c r="AD45" s="3"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="3"/>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="P47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="6"/>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AD48" s="6"/>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="AE49" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A20:A48">
+    <sortCondition ref="A20"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
